--- a/data/income_statement/2digits/size/77_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/77_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>77-Rental and leasing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>77-Rental and leasing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,650 +841,735 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>253691.52467</v>
+        <v>300265.50763</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>283479.6981</v>
+        <v>336352.92225</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>333999.54065</v>
+        <v>407688.63413</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>365437.2835</v>
+        <v>444822.47877</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>362781.8767800001</v>
+        <v>460477.89691</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>447181.39565</v>
+        <v>569933.77688</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>477259.64478</v>
+        <v>623307.25823</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>506526.75264</v>
+        <v>666441.6710399999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>626902.6398100001</v>
+        <v>791990.4992400002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1467454.55751</v>
+        <v>1808483.19868</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1705773.12909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2138232.86387</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2451266.41</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>238829.41728</v>
+        <v>279478.10422</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>259286.3462</v>
+        <v>307846.4362</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>313846.40783</v>
+        <v>382373.77539</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>344363.80519</v>
+        <v>416814.67091</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>340462.64932</v>
+        <v>431495.71478</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>420416.92217</v>
+        <v>535839.6635500001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>445277.6287900001</v>
+        <v>579570.8715799999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>457334.73809</v>
+        <v>606749.79138</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>548261.02629</v>
+        <v>704798.97195</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1341745.47747</v>
+        <v>1656176.61076</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1587259.35879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1986480.91257</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2275305.519</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5109.51709</v>
+        <v>7681.235630000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10629.72636</v>
+        <v>11780.44862</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>8912.343129999999</v>
+        <v>9097.164719999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>9888.41473</v>
+        <v>11199.53935</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>12290.00637</v>
+        <v>14145.39445</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11658.15637</v>
+        <v>13314.08436</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>17241.8369</v>
+        <v>21848.3488</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>27230.61994</v>
+        <v>28865.46723</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>48280.15894</v>
+        <v>49110.22813</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>71893.61589</v>
+        <v>79678.84862</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>57423.29915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>69717.67278000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>69583.382</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9752.590299999998</v>
+        <v>13106.16778</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13563.62554</v>
+        <v>16726.03743</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11240.78969</v>
+        <v>16217.69402</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11185.06358</v>
+        <v>16808.26851</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>10029.22109</v>
+        <v>14836.78768</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15106.31711</v>
+        <v>20780.02897</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>14740.17909</v>
+        <v>21888.03785</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>21961.39461</v>
+        <v>30826.41243</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>30361.45458</v>
+        <v>38081.29916</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>53815.46415</v>
+        <v>72627.7393</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>61090.47115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>82034.27851999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>106377.509</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1051.17186</v>
+        <v>1259.14696</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>759.2501299999999</v>
+        <v>1081.28631</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1999.02157</v>
+        <v>2763.19712</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>681.0715799999999</v>
+        <v>1597.14109</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>855.3943200000001</v>
+        <v>1687.20486</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1472.23911</v>
+        <v>1819.35155</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1247.24841</v>
+        <v>1528.43712</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1232.42806</v>
+        <v>1888.48842</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1367.26878</v>
+        <v>2548.91716</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4604.79803</v>
+        <v>6205.8155</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>18272.33909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20208.19075</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>60197.667</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1000.77933</v>
+        <v>1206.95281</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>668.7131300000001</v>
+        <v>947.0138899999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1762.47454</v>
+        <v>2456.62971</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>542.82313</v>
+        <v>1372.2109</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>508.00353</v>
+        <v>1329.98306</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1398.90812</v>
+        <v>1681.59586</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1140.20649</v>
+        <v>1277.89775</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1090.13001</v>
+        <v>1700.92202</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>649.95379</v>
+        <v>1814.85809</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3969.22761</v>
+        <v>5505.199560000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17624.67065</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19506.32798</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>58426.092</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>31.98878</v>
+        <v>32.72811</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>47.37467000000001</v>
+        <v>54.72022</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>193.60785</v>
+        <v>262.99247</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>130.80674</v>
+        <v>217.0583</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>62.80061</v>
+        <v>68.49373999999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>66.40826999999999</v>
+        <v>110.24957</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>98.40174</v>
+        <v>157.45346</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>136.37925</v>
+        <v>169.91965</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>612.45866</v>
+        <v>619.9335900000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>488.3351700000001</v>
+        <v>520.696</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>517.1613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>547.24828</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>459.743</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>18.40375</v>
+        <v>19.46604</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>43.16233</v>
+        <v>79.55220000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>42.93918</v>
+        <v>43.57494000000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7.44171</v>
+        <v>7.87189</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>284.59018</v>
+        <v>288.72806</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6.92272</v>
+        <v>27.50612</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8.640180000000001</v>
+        <v>93.08591</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5.9188</v>
+        <v>17.64675</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>104.85633</v>
+        <v>114.12548</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>147.23525</v>
+        <v>179.91994</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>130.50714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>154.61449</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1311.832</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>252640.35281</v>
+        <v>299006.36067</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>282720.44797</v>
+        <v>335271.63594</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>332000.5190800001</v>
+        <v>404925.4370100001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>364756.21192</v>
+        <v>443225.3376799999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>361926.48246</v>
+        <v>458790.69205</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>445709.15654</v>
+        <v>568114.42533</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>476012.39637</v>
+        <v>621778.82111</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>505294.32458</v>
+        <v>664553.18262</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>625535.37103</v>
+        <v>789441.5820800001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1462849.75948</v>
+        <v>1802277.38318</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1687500.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2118024.67312</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2391068.743</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>188605.28001</v>
+        <v>221271.50989</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>210780.6962</v>
+        <v>244456.40487</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>251614.35518</v>
+        <v>299338.04297</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>280910.62829</v>
+        <v>332424.21537</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>267784.36415</v>
+        <v>337843.61469</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>325266.4502</v>
+        <v>410324.48638</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>369918.6432399999</v>
+        <v>469106.70503</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>394983.08447</v>
+        <v>515302.96445</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>503395.50897</v>
+        <v>607795.5358399999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1154378.91571</v>
+        <v>1409030.1409</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1347002.83902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1679236.50826</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1989287.948</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12195.60716</v>
+        <v>12836.08968</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>12225.70878</v>
+        <v>12780.11365</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4590.50829</v>
+        <v>6362.40309</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6476.346530000001</v>
+        <v>9570.1302</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7257.623060000001</v>
+        <v>8272.380810000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13674.59681</v>
+        <v>15870.65195</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3720.19696</v>
+        <v>6456.45081</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11675.20124</v>
+        <v>14116.18968</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5975.89148</v>
+        <v>7827.009210000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>19758.68024</v>
+        <v>29333.80823</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21693.87602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>29839.80467</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>24988.106</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>59760.93414999999</v>
+        <v>64259.12776</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>55176.32326</v>
+        <v>60836.51934000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>105868.1196</v>
+        <v>110445.27265</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>126599.06524</v>
+        <v>134060.73824</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>121768.3378</v>
+        <v>134614.35474</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>144434.8684</v>
+        <v>162253.55591</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>168110.40842</v>
+        <v>186893.10254</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>174196.62205</v>
+        <v>196043.62596</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>251988.33846</v>
+        <v>272734.82118</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>532910.1715899999</v>
+        <v>604465.74991</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>610035.7118800001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>720982.74587</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1002258.825</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>115082.65043</v>
+        <v>142174.97007</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>142234.4118</v>
+        <v>169226.51231</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>138346.29464</v>
+        <v>178931.96994</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>145938.37399</v>
+        <v>186649.43164</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>135726.87311</v>
+        <v>191700.55456</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>160338.95919</v>
+        <v>223144.22964</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>183208.9992</v>
+        <v>258493.57371</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>194372.09311</v>
+        <v>285824.81695</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>226100.39841</v>
+        <v>300046.53572</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>564254.23208</v>
+        <v>723714.84964</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>671488.3132000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>867331.7568799999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>876232.133</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1566.08827</v>
+        <v>2001.32238</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1144.25236</v>
+        <v>1613.25957</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2809.43265</v>
+        <v>3598.39729</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1896.84253</v>
+        <v>2143.91529</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3031.53018</v>
+        <v>3256.32458</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6818.025799999999</v>
+        <v>9056.04888</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14879.03866</v>
+        <v>17263.57797</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>14739.16807</v>
+        <v>19318.33186</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>19330.88062</v>
+        <v>27187.16973</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>37455.83180000001</v>
+        <v>51515.73312</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43784.93792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>61082.20084</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>85808.88400000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>64035.0728</v>
+        <v>77734.85078000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>71939.75177</v>
+        <v>90815.23106999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>80386.16389999999</v>
+        <v>105587.39404</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>83845.58363000001</v>
+        <v>110801.12231</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>94142.11831000001</v>
+        <v>120947.07736</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>120442.70634</v>
+        <v>157789.93895</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>106093.75313</v>
+        <v>152672.11608</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>110311.24011</v>
+        <v>149250.21817</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>122139.86206</v>
+        <v>181646.04624</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>308470.84377</v>
+        <v>393247.24228</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>340497.9509800001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>438788.16486</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>401780.795</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>67604.67892999999</v>
+        <v>88648.52132</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>75787.59621</v>
+        <v>100803.35765</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>83171.62757000001</v>
+        <v>117147.42088</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>89770.96631</v>
+        <v>125600.55874</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>104604.11511</v>
+        <v>143714.04049</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>132741.55464</v>
+        <v>186814.35585</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>121826.39934</v>
+        <v>180145.42297</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>127997.57525</v>
+        <v>204513.70599</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>139441.27266</v>
+        <v>225627.03368</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>312912.82324</v>
+        <v>414694.47731</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>362207.5522799999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>519843.06571</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>522231.295</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4.60403</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6.3304</v>
+        <v>78.14923</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>31.41579</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>558.00676</v>
+        <v>612.81037</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>266.7426</v>
@@ -1592,223 +1578,253 @@
         <v>152.25909</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2.0216</v>
+        <v>22.16201</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>38.71503</v>
+        <v>68.36557000000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>740.5485200000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1680.2983</v>
+        <v>1684.50238</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>240.67811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>337.01636</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>364.931</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6393.1786</v>
+        <v>7470.172380000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8329.905000000001</v>
+        <v>10129.93797</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>14295.85993</v>
+        <v>16728.04596</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11136.41301</v>
+        <v>13423.2498</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>16545.05425</v>
+        <v>19931.28294</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>29246.10199</v>
+        <v>40866.3488</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14315.40504</v>
+        <v>21157.3322</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>15683.4181</v>
+        <v>26792.61181</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>22387.5808</v>
+        <v>32546.71284</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>55544.85365</v>
+        <v>72063.18756999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>47674.81651999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>68917.23178999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>70253.287</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>61206.8963</v>
+        <v>81173.74490999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>67451.36081</v>
+        <v>90595.27045</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>68844.35185000001</v>
+        <v>100387.95913</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>78076.54654</v>
+        <v>111564.49857</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>87792.31826</v>
+        <v>123516.01495</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>103343.19356</v>
+        <v>145795.74796</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>107508.9727</v>
+        <v>158965.92876</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>112275.44212</v>
+        <v>177652.72861</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>116313.14334</v>
+        <v>192339.77232</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>255687.67129</v>
+        <v>340946.78736</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>314292.05765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>450588.81756</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>451613.077</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-3569.60613</v>
+        <v>-10913.67054</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-3847.844439999999</v>
+        <v>-9988.12658</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2785.46367</v>
+        <v>-11560.02684</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-5925.38268</v>
+        <v>-14799.43643</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-10461.9968</v>
+        <v>-22766.96313</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-12298.8483</v>
+        <v>-29024.4169</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-15732.64621</v>
+        <v>-27473.30689</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-17686.33514</v>
+        <v>-55263.48782</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-17301.4106</v>
+        <v>-43980.98744</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-4441.979469999999</v>
+        <v>-21447.23503</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-21709.6013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-81054.90084999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-120450.5</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6428.50216</v>
+        <v>17848.07752</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>6311.3183</v>
+        <v>16100.94171</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5231.700059999999</v>
+        <v>20380.90717999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5742.6125</v>
+        <v>40631.366</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7524.75444</v>
+        <v>71861.40022</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5278.71894</v>
+        <v>55152.53189000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6590.315060000001</v>
+        <v>60414.72474000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7009.597420000001</v>
+        <v>65323.88659</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6428.413140000001</v>
+        <v>57044.53014</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>31537.13353</v>
+        <v>259929.00657</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>25215.71867</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>301989.21699</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>469958.611</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>17.41409</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>31.78868</v>
+        <v>38.45614</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11.053</v>
+        <v>18.71392</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>19.8219</v>
+        <v>15107.81846</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>19.91734</v>
+        <v>25860.87181</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>21.34461</v>
+        <v>28034.10113</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1.39786</v>
+        <v>6012.93109</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>13.7588</v>
+        <v>13794.92234</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1.49551</v>
+        <v>18782.58078</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3.78474</v>
+        <v>48240.6617</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>13.75724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>34432.8789</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>51983.305</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>5.48513</v>
+        <v>620.80191</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1820,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>748.6307800000001</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>22.57234</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>4009.85275</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,520 +1854,590 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>128.0511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>15557.34996</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>13607.199</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>488.8291</v>
+        <v>1570.01882</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>495.32242</v>
+        <v>1840.18666</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>520.24745</v>
+        <v>3082.03194</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1212.14968</v>
+        <v>8879.747160000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>595.7143499999999</v>
+        <v>4960.15573</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>624.82185</v>
+        <v>5100.779100000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>560.0588399999999</v>
+        <v>4409.89917</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>421.69411</v>
+        <v>4098.05377</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>692.18923</v>
+        <v>8767.945870000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2501.63242</v>
+        <v>19238.60373</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2257.61429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>31601.44879</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>26735.498</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>68.26250999999999</v>
+        <v>93.57114999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>219.49813</v>
+        <v>295.97003</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>224.98826</v>
+        <v>315.57477</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>138.58989</v>
+        <v>205.02485</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>200.62365</v>
+        <v>309.78523</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>196.90345</v>
+        <v>526.92423</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>479.4707</v>
+        <v>586.98211</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>380.86321</v>
+        <v>837.0171399999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>66.01989</v>
+        <v>395.56626</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>223.70037</v>
+        <v>226.08443</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>350.56089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>353.46381</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>633.528</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>63.28758</v>
+        <v>67.00158</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3.04156</v>
+        <v>33.54175</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>76.70449000000001</v>
+        <v>96.09326</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>52.20138</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0.08412</v>
+        <v>3.05012</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>53.0262</v>
+        <v>56.15733</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>15.60365</v>
+        <v>19.59195</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4.47691</v>
+        <v>8.030989999999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>174.64753</v>
+        <v>1921.98612</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>311.11962</v>
+        <v>396.91412</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>354.99341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>488.11541</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>712.324</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>76.26061999999999</v>
+        <v>83.94880999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>50.75272999999999</v>
+        <v>87.58856</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25.6557</v>
+        <v>61.07662999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>37.07053</v>
+        <v>79.81775</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>130.94281</v>
+        <v>164.48524</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>240.9575</v>
+        <v>357.01414</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>139.19922</v>
+        <v>179.14954</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>87.25885</v>
+        <v>111.69051</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>136.73713</v>
+        <v>184.55529</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>317.81823</v>
+        <v>721.41658</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>569.4059599999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1233.65473</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11117.366</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2547.41935</v>
+        <v>6744.4638</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1215.34869</v>
+        <v>5710.23405</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>678.4002399999999</v>
+        <v>7669.89407</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>716.3368900000002</v>
+        <v>5981.07865</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1428.42502</v>
+        <v>29779.16073</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>707.09752</v>
+        <v>11321.22663</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1448.51671</v>
+        <v>35970.86575</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1911.50856</v>
+        <v>22404.97086</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1812.6701</v>
+        <v>17615.94252</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14253.28021</v>
+        <v>144223.37043</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5442.909019999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>166713.18875</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>240526.612</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>78.81065</v>
+        <v>250.22437</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>2.76032</v>
+        <v>345.03744</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>13.67175</v>
+        <v>18.60198</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>25.32645</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>0.9095</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>284.91071</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>7.01534</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1.07263</v>
+        <v>1.75939</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0.42658</v>
+        <v>37.00127</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6.22282</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6.435</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>5.861610000000001</v>
+        <v>13.56717</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1.92659</v>
+        <v>20.72901</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>3.0686</v>
+        <v>27.89941</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>1.865</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1.46501</v>
+        <v>125.65766</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>43.97594</v>
+        <v>93.22393</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>13.9584</v>
+        <v>187.92066</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>48.27962</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>95.86165</v>
+        <v>129.07985</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>301.32362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>326.34699</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>117.687</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3173.09626</v>
+        <v>8636.79019</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4214.82885</v>
+        <v>7824.011140000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3688.822</v>
+        <v>8764.58574</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3550.90548</v>
+        <v>10305.21077</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5122.25569</v>
+        <v>9884.276470000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3368.01953</v>
+        <v>9639.62356</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3932.10968</v>
+        <v>12762.47376</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4190.03698</v>
+        <v>19970.79289</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3543.58112</v>
+        <v>9325.914289999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>13829.50971</v>
+        <v>46715.87445999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15797.10314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>51276.54683</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>124518.657</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4299.46984</v>
+        <v>11267.98265</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3095.73278</v>
+        <v>8151.3554</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3676.652880000001</v>
+        <v>13764.49459</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3935.91571</v>
+        <v>12759.19022</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4736.01938</v>
+        <v>25413.02183</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3522.29838</v>
+        <v>15392.25358</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4277.40382</v>
+        <v>32759.5981</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5669.480939999999</v>
+        <v>31195.57687</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8248.2835</v>
+        <v>25394.80358</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>28592.22048</v>
+        <v>276615.75009</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>16066.1272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>705460.7005</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>273139.971</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>124.41053</v>
+        <v>154.15552</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>62.51066</v>
+        <v>95.37562</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>119.71488</v>
+        <v>399.51058</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>484.99836</v>
+        <v>804.2570400000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>133.05428</v>
+        <v>320.62387</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>119.16083</v>
+        <v>224.02035</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>406.99676</v>
+        <v>473.04783</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>113.56496</v>
+        <v>132.41422</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>100.72594</v>
+        <v>124.84705</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>276.0962</v>
+        <v>330.29372</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>402.30351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>454.93054</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>998.922</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>371.01634</v>
+        <v>528.24601</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>287.24221</v>
+        <v>491.5913600000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>258.66517</v>
+        <v>280.10862</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>197.51208</v>
+        <v>300.86609</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>101.82074</v>
+        <v>183.8596</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>233.24687</v>
+        <v>284.64562</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>69.94264</v>
+        <v>237.62664</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1278.44901</v>
+        <v>1281.8592</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>378.30429</v>
+        <v>479.03278</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4840.21988</v>
+        <v>5481.67034</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1074.97919</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1847.41773</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4849.753</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>47.63756</v>
+        <v>50.29448</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>43.45884</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>17.088</v>
+        <v>543.91322</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>132.50215</v>
+        <v>222.66655</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>46.16714999999999</v>
+        <v>48.23245</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>60.60547</v>
+        <v>74.88513999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>49.40849000000001</v>
+        <v>71.76480000000001</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>38.06961</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>138.80074</v>
+        <v>148.47383</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>77.03026</v>
+        <v>149.80932</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>147.03613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>164.79555</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1693.7</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1684.75689</v>
+        <v>5993.541980000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>591.2961</v>
+        <v>4685.32542</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1152.78752</v>
+        <v>9338.054249999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>633.63366</v>
+        <v>6779.53358</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>959.7065200000001</v>
+        <v>19756.2067</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>801.2111499999999</v>
+        <v>9827.7703</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1353.19049</v>
+        <v>27074.03658</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1908.84766</v>
+        <v>22896.75322</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2271.50492</v>
+        <v>15355.37132</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15932.59517</v>
+        <v>236569.6883</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6517.28032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>171430.5549</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>224909.052</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2372,7 +2458,7 @@
         <v>0.46721</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>102.20162</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.152</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>7.11122</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2071.64852</v>
+        <v>4541.74466</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2104.46662</v>
+        <v>2828.84581</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2128.397309999999</v>
+        <v>3202.90792</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2487.22616</v>
+        <v>4651.82366</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3495.22147</v>
+        <v>5104.04999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2306.66792</v>
+        <v>4979.526029999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2397.86544</v>
+        <v>4800.92063</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2330.5497</v>
+        <v>6846.48062</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5358.93255</v>
+        <v>9287.063539999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7463.3373</v>
+        <v>34081.34674</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7917.41683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>531555.89056</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>40677.392</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10048.76</v>
+        <v>17787.7315</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6164.03498</v>
+        <v>11761.66931</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5795.67561</v>
+        <v>11332.936</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7102.16023</v>
+        <v>14159.12124</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6584.37913</v>
+        <v>15136.84979</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7949.740890000001</v>
+        <v>33377.9306</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8378.152639999998</v>
+        <v>46521.20395</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8264.270399999999</v>
+        <v>29041.16645</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7914.64702</v>
+        <v>32794.53354</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>34701.70769</v>
+        <v>176706.15893</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>38097.42453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>237529.07375</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>174616.377</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>8914.77858</v>
+        <v>16463.28422</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5846.278480000001</v>
+        <v>11212.20457</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5462.942099999999</v>
+        <v>10542.34622</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6722.39199</v>
+        <v>12913.96333</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5894.22813</v>
+        <v>13747.09644</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7345.748640000001</v>
+        <v>31968.86186</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7908.95681</v>
+        <v>45160.52472</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7702.627310000001</v>
+        <v>27793.16972</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7404.84396</v>
+        <v>31799.63214</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>33858.67081</v>
+        <v>170991.6965</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>37029.25450000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>232013.21002</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>168754.629</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1133.98142</v>
+        <v>1324.44728</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>317.7565</v>
+        <v>549.46474</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>332.73351</v>
+        <v>790.58978</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>379.76824</v>
+        <v>1245.15791</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>690.151</v>
+        <v>1389.75335</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>603.99225</v>
+        <v>1409.06874</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>469.19583</v>
+        <v>1360.67923</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>561.64309</v>
+        <v>1247.99673</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>509.80306</v>
+        <v>994.9014</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>843.03688</v>
+        <v>5714.46243</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1068.17003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5515.863729999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5861.748</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-11489.33381</v>
+        <v>-22121.30717</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6796.293900000001</v>
+        <v>-13800.20958</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-7026.092100000001</v>
+        <v>-16276.55025</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-11220.84612</v>
+        <v>-1086.381890000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-14257.64087</v>
+        <v>8544.56547</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-18492.16863</v>
+        <v>-22642.06919</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-21797.88761</v>
+        <v>-46339.3842</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-24610.48906</v>
+        <v>-50176.34454999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-27035.92798</v>
+        <v>-45125.79441999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-36198.77411</v>
+        <v>-214840.13748</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-50657.43436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-722055.45811</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-98248.23699999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8773.995169999998</v>
+        <v>14816.85756</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10750.5787</v>
+        <v>18700.71554</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9052.04557</v>
+        <v>20365.4373</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11216.20976</v>
+        <v>23036.93557</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>12473.88027</v>
+        <v>22045.78488</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17567.37638</v>
+        <v>31629.11974</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17277.00011</v>
+        <v>38072.24956</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22364.61626</v>
+        <v>54316.68377999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>20244.04533</v>
+        <v>48257.39611</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>47335.56389</v>
+        <v>84617.74778000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>63710.07519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>116348.80895</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>163945.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>213.8862</v>
+        <v>257.42081</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>363.26013</v>
+        <v>713.39212</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>27.50339</v>
+        <v>348.6478499999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>713.55418</v>
+        <v>715.1281</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>143.96598</v>
+        <v>149.56477</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>127.95116</v>
+        <v>156.65923</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>198.25312</v>
+        <v>216.0814</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>685.29983</v>
+        <v>730.4990399999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>58.50525</v>
+        <v>126.47861</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>713.95534</v>
+        <v>719.43751</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>230.68804</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>453.58716</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>769.749</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8560.108969999999</v>
+        <v>14559.43675</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10387.31857</v>
+        <v>17987.32342</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9024.54218</v>
+        <v>20016.78945</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10502.65558</v>
+        <v>22321.80747</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>12329.91429</v>
+        <v>21896.22011</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17439.42522</v>
+        <v>31472.46051</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17078.74699</v>
+        <v>37856.16815999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>21679.31643</v>
+        <v>53586.18474</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>20185.54008</v>
+        <v>48130.9175</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>46621.60855</v>
+        <v>83898.31027</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>63479.38715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>115895.22179</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>163175.39</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7812.10139</v>
+        <v>9269.932270000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6284.60955</v>
+        <v>9756.344439999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>16570.98166</v>
+        <v>37852.40018</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7259.156869999999</v>
+        <v>11918.9006</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9719.175860000001</v>
+        <v>15196.46341</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17371.26017</v>
+        <v>29227.48309</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12085.81463</v>
+        <v>25376.60711</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23721.16016</v>
+        <v>49298.74844</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>17017.49079</v>
+        <v>28999.66164</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>36008.11654</v>
+        <v>61895.72385</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>34985.79987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>53527.45967</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>100954.563</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>179.01331</v>
+        <v>187.18574</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>238.67075</v>
+        <v>329.65826</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>181.3806</v>
+        <v>5323.51683</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>270.79111</v>
+        <v>797.23027</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>105.57348</v>
+        <v>374.44948</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>149.68092</v>
+        <v>311.95786</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>38.41164</v>
+        <v>300.26412</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>64.31851</v>
+        <v>79.22257</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>271.18155</v>
+        <v>718.12098</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>555.57787</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>139.2493</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>167.49438</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1144.256</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>373.48605</v>
+        <v>392.29082</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>167.81498</v>
+        <v>535.0769300000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>238.04288</v>
+        <v>421.4781899999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>323.15643</v>
+        <v>553.17241</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>245.13717</v>
+        <v>638.81485</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>267.76257</v>
+        <v>469.51112</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2020.88444</v>
+        <v>2572.4734</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>129.94301</v>
+        <v>271.69701</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>197.75673</v>
+        <v>224.89306</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>302.72674</v>
+        <v>559.67338</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>469.59362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1607.6712</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7200.824</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>7259.60203</v>
+        <v>8690.45571</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5878.12382</v>
+        <v>8891.60925</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>16151.55818</v>
+        <v>32107.40516</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6665.20933</v>
+        <v>10568.49792</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9368.465209999998</v>
+        <v>14183.19908</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16953.81668</v>
+        <v>28446.01411</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10026.51855</v>
+        <v>22503.86959</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23526.89864</v>
+        <v>48947.82886</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16548.55251</v>
+        <v>28056.6476</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>35149.81193</v>
+        <v>60780.47259999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>34376.95695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>51752.29409</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>92609.48299999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-10527.44003</v>
+        <v>-16574.38188</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-2330.32475</v>
+        <v>-4855.838479999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-14545.02819</v>
+        <v>-33763.51312999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-7263.793229999999</v>
+        <v>10031.65308</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-11502.93646</v>
+        <v>15393.88694</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-18296.05242</v>
+        <v>-20240.43254</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-16606.70213</v>
+        <v>-33643.74175</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-25967.03296</v>
+        <v>-45158.40920999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-23809.37344</v>
+        <v>-25868.05995</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-24871.32676</v>
+        <v>-192118.11355</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-21933.15904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-659234.1088299999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-35257.661</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1581.13291</v>
+        <v>2362.67677</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2097.00038</v>
+        <v>2695.86957</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2231.05967</v>
+        <v>3608.51267</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2504.17122</v>
+        <v>4049.79451</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2383.35948</v>
+        <v>7114.73163</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2713.77155</v>
+        <v>5050.34025</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2669.80759</v>
+        <v>6522.60343</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2405.63179</v>
+        <v>4603.77216</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2670.52246</v>
+        <v>4210.20367</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8813.227340000001</v>
+        <v>11793.10605</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10563.58094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15546.92547</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>16621.349</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-12108.57294</v>
+        <v>-18937.05865</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-4427.32513</v>
+        <v>-7551.70805</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16776.08786</v>
+        <v>-37372.0258</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-9767.964450000001</v>
+        <v>5981.858570000002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-13886.29594</v>
+        <v>8279.155310000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-21009.82397</v>
+        <v>-25290.77279</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-19276.50972</v>
+        <v>-40166.34518</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-28372.66475</v>
+        <v>-49762.18137000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-26479.8959</v>
+        <v>-30078.26362</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-33684.5541</v>
+        <v>-203911.2196</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-32496.73998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-674781.0343000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-51879.01</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1514</v>
+        <v>1626</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1617</v>
+        <v>1762</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1741</v>
+        <v>1935</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1761</v>
+        <v>1967</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1879</v>
+        <v>2131</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1999</v>
+        <v>2308</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2030</v>
+        <v>2400</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2075</v>
+        <v>2501</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2272</v>
+        <v>2710</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2995</v>
+        <v>3423</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3913</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>